--- a/src/main/resources/jxls/out/预算报表(年度预算).xlsx
+++ b/src/main/resources/jxls/out/预算报表(年度预算).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12645" tabRatio="785" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12645" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="逾期应收账款处置" sheetId="72" r:id="rId1"/>
@@ -5733,11 +5733,47 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5749,10 +5785,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -5761,31 +5793,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5806,55 +5816,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5874,28 +5874,16 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5908,30 +5896,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5955,6 +5919,42 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6407,8 +6407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6437,25 +6437,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="18.0" customHeight="true">
       <c r="A1"/>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="143" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
     </row>
     <row r="2" spans="1:19" s="18" customFormat="1" ht="12.0" customHeight="true">
       <c r="D2" s="89"/>
@@ -6500,47 +6500,47 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="44" customFormat="1" ht="14.25" customHeight="true">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="149" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="142"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="146"/>
     </row>
     <row r="5" spans="1:19" s="44" customFormat="1" ht="12.0" customHeight="true">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="149"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="150"/>
       <c r="G5" s="28" t="s">
         <v>10</v>
       </c>
@@ -6585,13 +6585,13 @@
       <c r="A6" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="126" t="s">
         <v>1293</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="131" t="s">
         <v>1294</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="131" t="s">
         <v>261</v>
       </c>
       <c r="E6" s="88" t="s">
@@ -6644,9 +6644,9 @@
       <c r="A7" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
       <c r="E7" s="88" t="s">
         <v>167</v>
       </c>
@@ -6697,9 +6697,9 @@
       <c r="A8" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
       <c r="E8" s="88" t="s">
         <v>180</v>
       </c>
@@ -6750,9 +6750,9 @@
       <c r="A9" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="88" t="s">
         <v>193</v>
       </c>
@@ -6803,9 +6803,9 @@
       <c r="A10" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="145" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="131" t="s">
         <v>262</v>
       </c>
       <c r="E10" s="88" t="s">
@@ -6858,9 +6858,9 @@
       <c r="A11" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="88" t="s">
         <v>262</v>
       </c>
@@ -6911,9 +6911,9 @@
       <c r="A12" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="152"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="88" t="s">
         <v>167</v>
       </c>
@@ -6964,9 +6964,9 @@
       <c r="A13" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
       <c r="E13" s="88" t="s">
         <v>180</v>
       </c>
@@ -7017,9 +7017,9 @@
       <c r="A14" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="152"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="88" t="s">
         <v>193</v>
       </c>
@@ -7070,12 +7070,12 @@
       <c r="A15" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="137" t="s">
+      <c r="B15" s="128"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="138"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="102" t="n">
         <v>1000000.0</v>
       </c>
@@ -7123,13 +7123,13 @@
       <c r="A16" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="126" t="s">
         <v>1295</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="131" t="s">
         <v>1296</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="131" t="s">
         <v>261</v>
       </c>
       <c r="E16" s="88" t="s">
@@ -7182,9 +7182,9 @@
       <c r="A17" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="88" t="s">
         <v>167</v>
       </c>
@@ -7235,9 +7235,9 @@
       <c r="A18" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
       <c r="E18" s="88" t="s">
         <v>180</v>
       </c>
@@ -7288,9 +7288,9 @@
       <c r="A19" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="88" t="s">
         <v>193</v>
       </c>
@@ -7341,9 +7341,9 @@
       <c r="A20" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="145" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="131" t="s">
         <v>262</v>
       </c>
       <c r="E20" s="88" t="s">
@@ -7396,9 +7396,9 @@
       <c r="A21" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="152"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
       <c r="E21" s="88" t="s">
         <v>262</v>
       </c>
@@ -7449,9 +7449,9 @@
       <c r="A22" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B22" s="152"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="88" t="s">
         <v>167</v>
       </c>
@@ -7502,9 +7502,9 @@
       <c r="A23" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="88" t="s">
         <v>180</v>
       </c>
@@ -7555,9 +7555,9 @@
       <c r="A24" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
       <c r="E24" s="88" t="s">
         <v>193</v>
       </c>
@@ -7608,12 +7608,12 @@
       <c r="A25" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="137" t="s">
+      <c r="B25" s="128"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="138"/>
+      <c r="E25" s="130"/>
       <c r="F25" s="102" t="n">
         <v>1.6991695E7</v>
       </c>
@@ -7661,13 +7661,13 @@
       <c r="A26" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="126" t="s">
         <v>1297</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="131" t="s">
         <v>1298</v>
       </c>
-      <c r="D26" s="145" t="s">
+      <c r="D26" s="131" t="s">
         <v>261</v>
       </c>
       <c r="E26" s="88" t="s">
@@ -7720,9 +7720,9 @@
       <c r="A27" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="88" t="s">
         <v>167</v>
       </c>
@@ -7773,9 +7773,9 @@
       <c r="A28" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="152"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="88" t="s">
         <v>180</v>
       </c>
@@ -7826,9 +7826,9 @@
       <c r="A29" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
       <c r="E29" s="88" t="s">
         <v>193</v>
       </c>
@@ -7879,9 +7879,9 @@
       <c r="A30" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="152"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="145" t="s">
+      <c r="B30" s="127"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="131" t="s">
         <v>262</v>
       </c>
       <c r="E30" s="88" t="s">
@@ -7934,9 +7934,9 @@
       <c r="A31" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="152"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
       <c r="E31" s="88" t="s">
         <v>262</v>
       </c>
@@ -7987,9 +7987,9 @@
       <c r="A32" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="152"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
       <c r="E32" s="88" t="s">
         <v>167</v>
       </c>
@@ -8040,9 +8040,9 @@
       <c r="A33" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B33" s="152"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
       <c r="E33" s="88" t="s">
         <v>180</v>
       </c>
@@ -8093,9 +8093,9 @@
       <c r="A34" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="147"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="133"/>
       <c r="E34" s="88" t="s">
         <v>193</v>
       </c>
@@ -8146,12 +8146,12 @@
       <c r="A35" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="153"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="137" t="s">
+      <c r="B35" s="128"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="E35" s="138"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="102" t="n">
         <v>-2519600.0</v>
       </c>
@@ -8199,14 +8199,14 @@
       <c r="A36" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="137" t="s">
+      <c r="C36" s="138"/>
+      <c r="D36" s="129" t="s">
         <v>266</v>
       </c>
-      <c r="E36" s="138"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="104" t="n">
         <v>6083438.0</v>
       </c>
@@ -8254,12 +8254,12 @@
       <c r="A37" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="134" t="s">
+      <c r="B37" s="139"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="134"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="104" t="n">
         <v>1.419117E7</v>
       </c>
@@ -8305,12 +8305,12 @@
     </row>
     <row r="38" spans="1:24" ht="14.25" customHeight="true">
       <c r="A38" s="23"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="130"/>
-      <c r="D38" t="s" s="134">
+      <c r="B38" s="139"/>
+      <c r="C38" s="140"/>
+      <c r="D38" t="s" s="136">
         <v>268</v>
       </c>
-      <c r="E38" s="134"/>
+      <c r="E38" s="136"/>
       <c r="F38" t="n" s="104">
         <v>1280925.0</v>
       </c>
@@ -8358,12 +8358,12 @@
       <c r="A39" t="s" s="93">
         <v>260</v>
       </c>
-      <c r="B39" s="131"/>
-      <c r="C39" s="133"/>
-      <c r="D39" t="s" s="134">
+      <c r="B39" s="141"/>
+      <c r="C39" s="142"/>
+      <c r="D39" t="s" s="136">
         <v>163</v>
       </c>
-      <c r="E39" s="134"/>
+      <c r="E39" s="136"/>
       <c r="F39" t="n" s="104">
         <v>1.5472095E7</v>
       </c>
@@ -8411,13 +8411,13 @@
       <c r="A40" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B40" t="s" s="151">
+      <c r="B40" t="s" s="126">
         <v>1299</v>
       </c>
-      <c r="C40" t="s" s="145">
+      <c r="C40" t="s" s="131">
         <v>1300</v>
       </c>
-      <c r="D40" t="s" s="145">
+      <c r="D40" t="s" s="131">
         <v>261</v>
       </c>
       <c r="E40" t="s" s="88">
@@ -8470,9 +8470,9 @@
       <c r="A41" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B41" s="152"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
       <c r="E41" t="s" s="88">
         <v>167</v>
       </c>
@@ -8528,9 +8528,9 @@
       <c r="A42" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
       <c r="E42" t="s" s="88">
         <v>180</v>
       </c>
@@ -8586,9 +8586,9 @@
       <c r="A43" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B43" s="152"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="147"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="133"/>
       <c r="E43" t="s" s="88">
         <v>193</v>
       </c>
@@ -8644,9 +8644,9 @@
       <c r="A44" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B44" s="152"/>
-      <c r="C44" s="146"/>
-      <c r="D44" t="s" s="145">
+      <c r="B44" s="127"/>
+      <c r="C44" s="132"/>
+      <c r="D44" t="s" s="131">
         <v>262</v>
       </c>
       <c r="E44" t="s" s="88">
@@ -8704,9 +8704,9 @@
       <c r="A45" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
       <c r="E45" t="s" s="88">
         <v>262</v>
       </c>
@@ -8762,9 +8762,9 @@
       <c r="A46" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B46" s="152"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
       <c r="E46" t="s" s="88">
         <v>167</v>
       </c>
@@ -8820,9 +8820,9 @@
       <c r="A47" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B47" s="152"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
       <c r="E47" t="s" s="88">
         <v>180</v>
       </c>
@@ -8878,9 +8878,9 @@
       <c r="A48" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B48" s="152"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="147"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="133"/>
       <c r="E48" t="s" s="88">
         <v>193</v>
       </c>
@@ -8931,12 +8931,12 @@
       <c r="A49" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B49" s="153"/>
-      <c r="C49" s="147"/>
-      <c r="D49" t="s" s="137">
+      <c r="B49" s="128"/>
+      <c r="C49" s="133"/>
+      <c r="D49" t="s" s="129">
         <v>265</v>
       </c>
-      <c r="E49" s="138"/>
+      <c r="E49" s="130"/>
       <c r="F49" t="n" s="102">
         <v>-19476.0</v>
       </c>
@@ -8984,13 +8984,13 @@
       <c r="A50" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B50" t="s" s="151">
+      <c r="B50" t="s" s="126">
         <v>1301</v>
       </c>
-      <c r="C50" t="s" s="145">
+      <c r="C50" t="s" s="131">
         <v>1302</v>
       </c>
-      <c r="D50" t="s" s="145">
+      <c r="D50" t="s" s="131">
         <v>261</v>
       </c>
       <c r="E50" t="s" s="88">
@@ -9043,9 +9043,9 @@
       <c r="A51" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B51" s="152"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
       <c r="E51" t="s" s="88">
         <v>167</v>
       </c>
@@ -9096,9 +9096,9 @@
       <c r="A52" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B52" s="152"/>
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
       <c r="E52" t="s" s="88">
         <v>180</v>
       </c>
@@ -9149,9 +9149,9 @@
       <c r="A53" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B53" s="152"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="147"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="133"/>
       <c r="E53" t="s" s="88">
         <v>193</v>
       </c>
@@ -9202,9 +9202,9 @@
       <c r="A54" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B54" s="152"/>
-      <c r="C54" s="146"/>
-      <c r="D54" t="s" s="145">
+      <c r="B54" s="127"/>
+      <c r="C54" s="132"/>
+      <c r="D54" t="s" s="131">
         <v>262</v>
       </c>
       <c r="E54" t="s" s="88">
@@ -9257,9 +9257,9 @@
       <c r="A55" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B55" s="152"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
       <c r="E55" t="s" s="88">
         <v>262</v>
       </c>
@@ -9310,9 +9310,9 @@
       <c r="A56" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B56" s="152"/>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
       <c r="E56" t="s" s="88">
         <v>167</v>
       </c>
@@ -9363,9 +9363,9 @@
       <c r="A57" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B57" s="152"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
       <c r="E57" t="s" s="88">
         <v>180</v>
       </c>
@@ -9416,9 +9416,9 @@
       <c r="A58" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B58" s="152"/>
-      <c r="C58" s="146"/>
-      <c r="D58" s="147"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="133"/>
       <c r="E58" t="s" s="88">
         <v>193</v>
       </c>
@@ -9469,12 +9469,12 @@
       <c r="A59" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B59" s="153"/>
-      <c r="C59" s="147"/>
-      <c r="D59" t="s" s="137">
+      <c r="B59" s="128"/>
+      <c r="C59" s="133"/>
+      <c r="D59" t="s" s="129">
         <v>265</v>
       </c>
-      <c r="E59" s="138"/>
+      <c r="E59" s="130"/>
       <c r="F59" t="n" s="102">
         <v>-56287.0</v>
       </c>
@@ -9522,13 +9522,13 @@
       <c r="A60" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B60" t="s" s="151">
+      <c r="B60" t="s" s="126">
         <v>1303</v>
       </c>
-      <c r="C60" t="s" s="145">
+      <c r="C60" t="s" s="131">
         <v>1304</v>
       </c>
-      <c r="D60" t="s" s="145">
+      <c r="D60" t="s" s="131">
         <v>261</v>
       </c>
       <c r="E60" t="s" s="88">
@@ -9581,9 +9581,9 @@
       <c r="A61" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B61" s="152"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="146"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
       <c r="E61" t="s" s="88">
         <v>167</v>
       </c>
@@ -9634,9 +9634,9 @@
       <c r="A62" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B62" s="152"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
       <c r="E62" t="s" s="88">
         <v>180</v>
       </c>
@@ -9687,9 +9687,9 @@
       <c r="A63" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B63" s="152"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="147"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="133"/>
       <c r="E63" t="s" s="88">
         <v>193</v>
       </c>
@@ -9740,9 +9740,9 @@
       <c r="A64" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B64" s="152"/>
-      <c r="C64" s="146"/>
-      <c r="D64" t="s" s="145">
+      <c r="B64" s="127"/>
+      <c r="C64" s="132"/>
+      <c r="D64" t="s" s="131">
         <v>262</v>
       </c>
       <c r="E64" t="s" s="88">
@@ -9795,9 +9795,9 @@
       <c r="A65" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B65" s="152"/>
-      <c r="C65" s="146"/>
-      <c r="D65" s="146"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="132"/>
       <c r="E65" t="s" s="88">
         <v>262</v>
       </c>
@@ -9848,9 +9848,9 @@
       <c r="A66" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B66" s="152"/>
-      <c r="C66" s="146"/>
-      <c r="D66" s="146"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="132"/>
       <c r="E66" t="s" s="88">
         <v>167</v>
       </c>
@@ -9901,9 +9901,9 @@
       <c r="A67" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B67" s="152"/>
-      <c r="C67" s="146"/>
-      <c r="D67" s="146"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="132"/>
       <c r="E67" t="s" s="88">
         <v>180</v>
       </c>
@@ -9954,9 +9954,9 @@
       <c r="A68" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B68" s="152"/>
-      <c r="C68" s="146"/>
-      <c r="D68" s="147"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="133"/>
       <c r="E68" t="s" s="88">
         <v>193</v>
       </c>
@@ -10007,12 +10007,12 @@
       <c r="A69" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B69" s="153"/>
-      <c r="C69" s="147"/>
-      <c r="D69" t="s" s="137">
+      <c r="B69" s="128"/>
+      <c r="C69" s="133"/>
+      <c r="D69" t="s" s="129">
         <v>265</v>
       </c>
-      <c r="E69" s="138"/>
+      <c r="E69" s="130"/>
       <c r="F69" t="n" s="102">
         <v>867.0</v>
       </c>
@@ -10060,14 +10060,14 @@
       <c r="A70" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B70" t="s" s="125">
+      <c r="B70" t="s" s="137">
         <v>256</v>
       </c>
-      <c r="C70" s="127"/>
-      <c r="D70" t="s" s="137">
+      <c r="C70" s="138"/>
+      <c r="D70" t="s" s="129">
         <v>270</v>
       </c>
-      <c r="E70" s="138"/>
+      <c r="E70" s="130"/>
       <c r="F70" t="n" s="104">
         <v>88376.0</v>
       </c>
@@ -10115,12 +10115,12 @@
       <c r="A71" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B71" s="128"/>
-      <c r="C71" s="130"/>
-      <c r="D71" t="s" s="134">
+      <c r="B71" s="139"/>
+      <c r="C71" s="140"/>
+      <c r="D71" t="s" s="136">
         <v>267</v>
       </c>
-      <c r="E71" s="134"/>
+      <c r="E71" s="136"/>
       <c r="F71" t="n" s="104">
         <v>-33329.0</v>
       </c>
@@ -10168,12 +10168,12 @@
       <c r="A72" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B72" s="128"/>
-      <c r="C72" s="130"/>
-      <c r="D72" t="s" s="134">
+      <c r="B72" s="139"/>
+      <c r="C72" s="140"/>
+      <c r="D72" t="s" s="136">
         <v>268</v>
       </c>
-      <c r="E72" s="134"/>
+      <c r="E72" s="136"/>
       <c r="F72" t="n" s="104">
         <v>-41567.0</v>
       </c>
@@ -10221,12 +10221,12 @@
       <c r="A73" t="s" s="93">
         <v>269</v>
       </c>
-      <c r="B73" s="131"/>
-      <c r="C73" s="133"/>
-      <c r="D73" t="s" s="134">
+      <c r="B73" s="141"/>
+      <c r="C73" s="142"/>
+      <c r="D73" t="s" s="136">
         <v>163</v>
       </c>
-      <c r="E73" s="134"/>
+      <c r="E73" s="136"/>
       <c r="F73" t="n" s="104">
         <v>-74896.0</v>
       </c>
@@ -10271,15 +10271,15 @@
       </c>
     </row>
     <row r="74" ht="15.0" customHeight="true">
-      <c r="A74" t="s" s="125">
+      <c r="A74" t="s" s="137">
         <v>22</v>
       </c>
-      <c r="B74" s="126"/>
-      <c r="C74" s="127"/>
-      <c r="D74" t="s" s="135">
+      <c r="B74" s="151"/>
+      <c r="C74" s="138"/>
+      <c r="D74" t="s" s="154">
         <v>271</v>
       </c>
-      <c r="E74" s="136"/>
+      <c r="E74" s="155"/>
       <c r="F74" t="n" s="104">
         <v>6171814.0</v>
       </c>
@@ -10324,13 +10324,13 @@
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="true">
-      <c r="A75" s="128"/>
-      <c r="B75" s="129"/>
-      <c r="C75" s="130"/>
-      <c r="D75" t="s" s="134">
+      <c r="A75" s="139"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="140"/>
+      <c r="D75" t="s" s="136">
         <v>267</v>
       </c>
-      <c r="E75" s="134"/>
+      <c r="E75" s="136"/>
       <c r="F75" t="n" s="104">
         <v>1.4157841E7</v>
       </c>
@@ -10375,13 +10375,13 @@
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="true">
-      <c r="A76" s="128"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="130"/>
-      <c r="D76" t="s" s="134">
+      <c r="A76" s="139"/>
+      <c r="B76" s="152"/>
+      <c r="C76" s="140"/>
+      <c r="D76" t="s" s="136">
         <v>268</v>
       </c>
-      <c r="E76" s="134"/>
+      <c r="E76" s="136"/>
       <c r="F76" t="n" s="104">
         <v>1239358.0</v>
       </c>
@@ -10426,13 +10426,13 @@
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="true">
-      <c r="A77" s="131"/>
-      <c r="B77" s="132"/>
-      <c r="C77" s="133"/>
-      <c r="D77" t="s" s="134">
+      <c r="A77" s="141"/>
+      <c r="B77" s="153"/>
+      <c r="C77" s="142"/>
+      <c r="D77" t="s" s="136">
         <v>22</v>
       </c>
-      <c r="E77" s="134"/>
+      <c r="E77" s="136"/>
       <c r="F77" t="n" s="104">
         <v>1.5397199E7</v>
       </c>
@@ -10549,7 +10549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showFormulas="1" showGridLines="0" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -10580,29 +10580,29 @@
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="22.5" customHeight="true">
       <c r="A1" s="22"/>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="159" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
       <c r="X1" s="69"/>
     </row>
     <row r="2" spans="1:25" s="27" customFormat="1" ht="12.0" customHeight="true">
@@ -10648,47 +10648,47 @@
       </c>
     </row>
     <row r="4" spans="1:25" s="73" customFormat="1" ht="12.0" customHeight="true">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="147" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
       <c r="U4" s="86"/>
       <c r="V4" s="26"/>
     </row>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="12.0" customHeight="true">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="149"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="28" t="s">
         <v>10</v>
       </c>
@@ -15867,11 +15867,11 @@
       <c r="A110" t="s" s="83">
         <v>261</v>
       </c>
-      <c r="B110" t="s" s="159">
+      <c r="B110" t="s" s="156">
         <v>342</v>
       </c>
-      <c r="C110" s="160"/>
-      <c r="D110" s="160"/>
+      <c r="C110" s="157"/>
+      <c r="D110" s="157"/>
       <c r="E110" t="n" s="108">
         <v>5441220.0</v>
       </c>
@@ -16080,21 +16080,21 @@
       <c r="E4" s="162"/>
       <c r="F4" s="162"/>
       <c r="G4" s="162"/>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="160" t="s">
         <v>360</v>
       </c>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
       <c r="U4" s="163" t="s">
         <v>24</v>
       </c>
@@ -19672,7 +19672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG99"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -19714,41 +19714,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.0" customHeight="true">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="186"/>
     </row>
     <row r="2" spans="1:33" ht="12.0" customHeight="true">
       <c r="A2" s="1" t="s">
@@ -19790,88 +19790,88 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="12.0" customHeight="true">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="176" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="D3" s="184" t="s">
+      <c r="D3" s="175" t="s">
         <v>373</v>
       </c>
-      <c r="E3" s="184" t="s">
+      <c r="E3" s="175" t="s">
         <v>374</v>
       </c>
-      <c r="F3" s="184" t="s">
+      <c r="F3" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="178" t="s">
         <v>375</v>
       </c>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167" t="s">
+      <c r="I3" s="178"/>
+      <c r="J3" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167" t="s">
+      <c r="K3" s="178"/>
+      <c r="L3" s="178" t="s">
         <v>377</v>
       </c>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167" t="s">
+      <c r="M3" s="178"/>
+      <c r="N3" s="178" t="s">
         <v>378</v>
       </c>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167" t="s">
+      <c r="O3" s="178"/>
+      <c r="P3" s="178" t="s">
         <v>379</v>
       </c>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167" t="s">
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178" t="s">
         <v>380</v>
       </c>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167" t="s">
+      <c r="S3" s="178"/>
+      <c r="T3" s="178" t="s">
         <v>381</v>
       </c>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167" t="s">
+      <c r="U3" s="178"/>
+      <c r="V3" s="178" t="s">
         <v>382</v>
       </c>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167" t="s">
+      <c r="W3" s="178"/>
+      <c r="X3" s="178" t="s">
         <v>383</v>
       </c>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167" t="s">
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178" t="s">
         <v>384</v>
       </c>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167" t="s">
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178" t="s">
         <v>385</v>
       </c>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167" t="s">
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178" t="s">
         <v>386</v>
       </c>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167" t="s">
+      <c r="AE3" s="178"/>
+      <c r="AF3" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="167"/>
+      <c r="AG3" s="178"/>
     </row>
     <row r="4" spans="1:33" ht="12.0" customHeight="true">
-      <c r="A4" s="184"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="168"/>
+      <c r="A4" s="175"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="179"/>
       <c r="H4" s="112" t="s">
         <v>387</v>
       </c>
@@ -20199,39 +20199,39 @@
       <c r="B8" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173"/>
-      <c r="AG8" s="174"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="171"/>
     </row>
     <row r="9" spans="1:33" ht="12.0" customHeight="true">
       <c r="A9" s="3" t="n">
@@ -20240,13 +20240,13 @@
       <c r="B9" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C9" s="169" t="s">
+      <c r="C9" s="183" t="s">
         <v>420</v>
       </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="171"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="185"/>
       <c r="H9" s="114" t="n">
         <v>4332760.0</v>
       </c>
@@ -20574,39 +20574,39 @@
       <c r="B13" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C13" s="172" t="s">
+      <c r="C13" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="174"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="170"/>
+      <c r="U13" s="170"/>
+      <c r="V13" s="170"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="170"/>
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="170"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="170"/>
+      <c r="AC13" s="170"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="170"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="171"/>
     </row>
     <row r="14" spans="1:33" ht="12.0" customHeight="true">
       <c r="A14" s="3" t="n">
@@ -20615,13 +20615,13 @@
       <c r="B14" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C14" s="169" t="s">
+      <c r="C14" s="183" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="171"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="185"/>
       <c r="H14" s="115" t="n">
         <v>9857630.0</v>
       </c>
@@ -20949,39 +20949,39 @@
       <c r="B18" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="174"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="170"/>
+      <c r="U18" s="170"/>
+      <c r="V18" s="170"/>
+      <c r="W18" s="170"/>
+      <c r="X18" s="170"/>
+      <c r="Y18" s="170"/>
+      <c r="Z18" s="170"/>
+      <c r="AA18" s="170"/>
+      <c r="AB18" s="170"/>
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="170"/>
+      <c r="AE18" s="170"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="171"/>
     </row>
     <row r="19" spans="1:33" ht="12.0" customHeight="true">
       <c r="A19" s="3" t="n">
@@ -20990,13 +20990,13 @@
       <c r="B19" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C19" s="169" t="s">
+      <c r="C19" s="183" t="s">
         <v>424</v>
       </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="171"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
       <c r="H19" s="115" t="n">
         <v>9788946.0</v>
       </c>
@@ -21324,39 +21324,39 @@
       <c r="B23" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="174"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="170"/>
+      <c r="Y23" s="170"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="170"/>
+      <c r="AB23" s="170"/>
+      <c r="AC23" s="170"/>
+      <c r="AD23" s="170"/>
+      <c r="AE23" s="170"/>
+      <c r="AF23" s="170"/>
+      <c r="AG23" s="171"/>
     </row>
     <row r="24" spans="1:33" ht="12.0" customHeight="true">
       <c r="A24" s="3" t="n">
@@ -21365,13 +21365,13 @@
       <c r="B24" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C24" s="169" t="s">
+      <c r="C24" s="183" t="s">
         <v>426</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="171"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="185"/>
       <c r="H24" s="115" t="n">
         <v>1.7821686E7</v>
       </c>
@@ -21699,39 +21699,39 @@
       <c r="B28" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C28" s="172" t="s">
+      <c r="C28" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="174"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="170"/>
+      <c r="S28" s="170"/>
+      <c r="T28" s="170"/>
+      <c r="U28" s="170"/>
+      <c r="V28" s="170"/>
+      <c r="W28" s="170"/>
+      <c r="X28" s="170"/>
+      <c r="Y28" s="170"/>
+      <c r="Z28" s="170"/>
+      <c r="AA28" s="170"/>
+      <c r="AB28" s="170"/>
+      <c r="AC28" s="170"/>
+      <c r="AD28" s="170"/>
+      <c r="AE28" s="170"/>
+      <c r="AF28" s="170"/>
+      <c r="AG28" s="171"/>
     </row>
     <row r="29" spans="1:33" ht="12.0" customHeight="true">
       <c r="A29" s="3" t="n">
@@ -21740,13 +21740,13 @@
       <c r="B29" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C29" s="175" t="s">
+      <c r="C29" s="180" t="s">
         <v>428</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="177"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="182"/>
       <c r="H29" s="115" t="n">
         <v>1.9981868E7</v>
       </c>
@@ -22072,39 +22072,39 @@
       <c r="B33" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C33" s="172" t="s">
+      <c r="C33" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="173"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="173"/>
-      <c r="U33" s="173"/>
-      <c r="V33" s="173"/>
-      <c r="W33" s="173"/>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="173"/>
-      <c r="Z33" s="173"/>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="174"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="170"/>
+      <c r="S33" s="170"/>
+      <c r="T33" s="170"/>
+      <c r="U33" s="170"/>
+      <c r="V33" s="170"/>
+      <c r="W33" s="170"/>
+      <c r="X33" s="170"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="170"/>
+      <c r="AA33" s="170"/>
+      <c r="AB33" s="170"/>
+      <c r="AC33" s="170"/>
+      <c r="AD33" s="170"/>
+      <c r="AE33" s="170"/>
+      <c r="AF33" s="170"/>
+      <c r="AG33" s="171"/>
     </row>
     <row r="34" spans="1:33" ht="12.0" customHeight="true">
       <c r="A34" s="3" t="n">
@@ -22113,13 +22113,13 @@
       <c r="B34" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C34" s="175" t="s">
+      <c r="C34" s="180" t="s">
         <v>430</v>
       </c>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="177"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="182"/>
       <c r="H34" s="115" t="n">
         <v>1.9981868E7</v>
       </c>
@@ -22447,39 +22447,39 @@
       <c r="B38" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="173"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="173"/>
-      <c r="S38" s="173"/>
-      <c r="T38" s="173"/>
-      <c r="U38" s="173"/>
-      <c r="V38" s="173"/>
-      <c r="W38" s="173"/>
-      <c r="X38" s="173"/>
-      <c r="Y38" s="173"/>
-      <c r="Z38" s="173"/>
-      <c r="AA38" s="173"/>
-      <c r="AB38" s="173"/>
-      <c r="AC38" s="173"/>
-      <c r="AD38" s="173"/>
-      <c r="AE38" s="173"/>
-      <c r="AF38" s="173"/>
-      <c r="AG38" s="174"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
+      <c r="L38" s="170"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="170"/>
+      <c r="O38" s="170"/>
+      <c r="P38" s="170"/>
+      <c r="Q38" s="170"/>
+      <c r="R38" s="170"/>
+      <c r="S38" s="170"/>
+      <c r="T38" s="170"/>
+      <c r="U38" s="170"/>
+      <c r="V38" s="170"/>
+      <c r="W38" s="170"/>
+      <c r="X38" s="170"/>
+      <c r="Y38" s="170"/>
+      <c r="Z38" s="170"/>
+      <c r="AA38" s="170"/>
+      <c r="AB38" s="170"/>
+      <c r="AC38" s="170"/>
+      <c r="AD38" s="170"/>
+      <c r="AE38" s="170"/>
+      <c r="AF38" s="170"/>
+      <c r="AG38" s="171"/>
     </row>
     <row r="39" spans="1:33" ht="12.0" customHeight="true">
       <c r="A39" s="3" t="n">
@@ -22488,13 +22488,13 @@
       <c r="B39" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C39" s="175" t="s">
+      <c r="C39" s="180" t="s">
         <v>432</v>
       </c>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="177"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="182"/>
       <c r="H39" s="115" t="n">
         <v>5353361.0</v>
       </c>
@@ -22822,39 +22822,39 @@
       <c r="B43" t="s" s="4">
         <v>433</v>
       </c>
-      <c r="C43" t="s" s="172">
+      <c r="C43" t="s" s="169">
         <v>87</v>
       </c>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="173"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="173"/>
-      <c r="U43" s="173"/>
-      <c r="V43" s="173"/>
-      <c r="W43" s="173"/>
-      <c r="X43" s="173"/>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="173"/>
-      <c r="AA43" s="173"/>
-      <c r="AB43" s="173"/>
-      <c r="AC43" s="173"/>
-      <c r="AD43" s="173"/>
-      <c r="AE43" s="173"/>
-      <c r="AF43" s="173"/>
-      <c r="AG43" s="174"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
+      <c r="L43" s="170"/>
+      <c r="M43" s="170"/>
+      <c r="N43" s="170"/>
+      <c r="O43" s="170"/>
+      <c r="P43" s="170"/>
+      <c r="Q43" s="170"/>
+      <c r="R43" s="170"/>
+      <c r="S43" s="170"/>
+      <c r="T43" s="170"/>
+      <c r="U43" s="170"/>
+      <c r="V43" s="170"/>
+      <c r="W43" s="170"/>
+      <c r="X43" s="170"/>
+      <c r="Y43" s="170"/>
+      <c r="Z43" s="170"/>
+      <c r="AA43" s="170"/>
+      <c r="AB43" s="170"/>
+      <c r="AC43" s="170"/>
+      <c r="AD43" s="170"/>
+      <c r="AE43" s="170"/>
+      <c r="AF43" s="170"/>
+      <c r="AG43" s="171"/>
     </row>
     <row r="44" spans="1:33" ht="12.0" customHeight="true">
       <c r="A44" s="3" t="n">
@@ -22863,13 +22863,13 @@
       <c r="B44" t="s" s="4">
         <v>433</v>
       </c>
-      <c r="C44" t="s" s="175">
+      <c r="C44" t="s" s="180">
         <v>434</v>
       </c>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="177"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="182"/>
       <c r="H44" t="n" s="115">
         <v>1.2217892E7</v>
       </c>
@@ -23197,39 +23197,39 @@
       <c r="B48" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="172" t="s">
+      <c r="C48" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="173"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="173"/>
-      <c r="K48" s="173"/>
-      <c r="L48" s="173"/>
-      <c r="M48" s="173"/>
-      <c r="N48" s="173"/>
-      <c r="O48" s="173"/>
-      <c r="P48" s="173"/>
-      <c r="Q48" s="173"/>
-      <c r="R48" s="173"/>
-      <c r="S48" s="173"/>
-      <c r="T48" s="173"/>
-      <c r="U48" s="173"/>
-      <c r="V48" s="173"/>
-      <c r="W48" s="173"/>
-      <c r="X48" s="173"/>
-      <c r="Y48" s="173"/>
-      <c r="Z48" s="173"/>
-      <c r="AA48" s="173"/>
-      <c r="AB48" s="173"/>
-      <c r="AC48" s="173"/>
-      <c r="AD48" s="173"/>
-      <c r="AE48" s="173"/>
-      <c r="AF48" s="173"/>
-      <c r="AG48" s="174"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="170"/>
+      <c r="K48" s="170"/>
+      <c r="L48" s="170"/>
+      <c r="M48" s="170"/>
+      <c r="N48" s="170"/>
+      <c r="O48" s="170"/>
+      <c r="P48" s="170"/>
+      <c r="Q48" s="170"/>
+      <c r="R48" s="170"/>
+      <c r="S48" s="170"/>
+      <c r="T48" s="170"/>
+      <c r="U48" s="170"/>
+      <c r="V48" s="170"/>
+      <c r="W48" s="170"/>
+      <c r="X48" s="170"/>
+      <c r="Y48" s="170"/>
+      <c r="Z48" s="170"/>
+      <c r="AA48" s="170"/>
+      <c r="AB48" s="170"/>
+      <c r="AC48" s="170"/>
+      <c r="AD48" s="170"/>
+      <c r="AE48" s="170"/>
+      <c r="AF48" s="170"/>
+      <c r="AG48" s="171"/>
     </row>
     <row r="49" spans="1:33" ht="12.0" customHeight="true">
       <c r="A49" s="3" t="n">
@@ -23238,13 +23238,13 @@
       <c r="B49" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C49" s="175" t="s">
+      <c r="C49" s="180" t="s">
         <v>436</v>
       </c>
-      <c r="D49" s="176"/>
-      <c r="E49" s="176"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="177"/>
+      <c r="D49" s="181"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="115" t="n">
         <v>432375.0</v>
       </c>
@@ -23326,14 +23326,14 @@
     </row>
     <row r="50" spans="1:33" ht="12.0" customHeight="true">
       <c r="A50" s="7"/>
-      <c r="B50" s="169" t="s">
+      <c r="B50" s="183" t="s">
         <v>437</v>
       </c>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="171"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="185"/>
       <c r="H50" s="117" t="n">
         <v>9.9768386E7</v>
       </c>
@@ -23521,88 +23521,88 @@
       <c r="AG53" s="0"/>
     </row>
     <row r="54" spans="1:33" ht="14.25" customHeight="true">
-      <c r="A54" s="184" t="s">
+      <c r="A54" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="185" t="s">
+      <c r="B54" s="176" t="s">
         <v>371</v>
       </c>
-      <c r="C54" s="184" t="s">
+      <c r="C54" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="D54" s="184" t="s">
+      <c r="D54" s="175" t="s">
         <v>373</v>
       </c>
-      <c r="E54" s="184" t="s">
+      <c r="E54" s="175" t="s">
         <v>374</v>
       </c>
-      <c r="F54" s="184" t="s">
+      <c r="F54" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="G54" s="168" t="s">
+      <c r="G54" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="167" t="s">
+      <c r="H54" s="178" t="s">
         <v>375</v>
       </c>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167" t="s">
+      <c r="I54" s="178"/>
+      <c r="J54" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167" t="s">
+      <c r="K54" s="178"/>
+      <c r="L54" s="178" t="s">
         <v>377</v>
       </c>
-      <c r="M54" s="167"/>
-      <c r="N54" s="167" t="s">
+      <c r="M54" s="178"/>
+      <c r="N54" s="178" t="s">
         <v>378</v>
       </c>
-      <c r="O54" s="167"/>
-      <c r="P54" s="167" t="s">
+      <c r="O54" s="178"/>
+      <c r="P54" s="178" t="s">
         <v>379</v>
       </c>
-      <c r="Q54" s="167"/>
-      <c r="R54" s="167" t="s">
+      <c r="Q54" s="178"/>
+      <c r="R54" s="178" t="s">
         <v>380</v>
       </c>
-      <c r="S54" s="167"/>
-      <c r="T54" s="167" t="s">
+      <c r="S54" s="178"/>
+      <c r="T54" s="178" t="s">
         <v>381</v>
       </c>
-      <c r="U54" s="167"/>
-      <c r="V54" s="167" t="s">
+      <c r="U54" s="178"/>
+      <c r="V54" s="178" t="s">
         <v>382</v>
       </c>
-      <c r="W54" s="167"/>
-      <c r="X54" s="167" t="s">
+      <c r="W54" s="178"/>
+      <c r="X54" s="178" t="s">
         <v>383</v>
       </c>
-      <c r="Y54" s="167"/>
-      <c r="Z54" s="167" t="s">
+      <c r="Y54" s="178"/>
+      <c r="Z54" s="178" t="s">
         <v>384</v>
       </c>
-      <c r="AA54" s="167"/>
-      <c r="AB54" s="167" t="s">
+      <c r="AA54" s="178"/>
+      <c r="AB54" s="178" t="s">
         <v>385</v>
       </c>
-      <c r="AC54" s="167"/>
-      <c r="AD54" s="167" t="s">
+      <c r="AC54" s="178"/>
+      <c r="AD54" s="178" t="s">
         <v>386</v>
       </c>
-      <c r="AE54" s="167"/>
-      <c r="AF54" s="167" t="s">
+      <c r="AE54" s="178"/>
+      <c r="AF54" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AG54" s="167"/>
+      <c r="AG54" s="178"/>
     </row>
     <row r="55" spans="1:33" ht="14.25" customHeight="true">
-      <c r="A55" s="184"/>
-      <c r="B55" s="186"/>
-      <c r="C55" s="184"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="184"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="168"/>
+      <c r="A55" s="175"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="175"/>
+      <c r="D55" s="175"/>
+      <c r="E55" s="175"/>
+      <c r="F55" s="175"/>
+      <c r="G55" s="179"/>
       <c r="H55" s="112" t="s">
         <v>387</v>
       </c>
@@ -23930,39 +23930,39 @@
       <c r="B59" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C59" s="172" t="s">
+      <c r="C59" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="173"/>
-      <c r="E59" s="173"/>
-      <c r="F59" s="173"/>
-      <c r="G59" s="173"/>
-      <c r="H59" s="173"/>
-      <c r="I59" s="173"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="173"/>
-      <c r="L59" s="173"/>
-      <c r="M59" s="173"/>
-      <c r="N59" s="173"/>
-      <c r="O59" s="173"/>
-      <c r="P59" s="173"/>
-      <c r="Q59" s="173"/>
-      <c r="R59" s="173"/>
-      <c r="S59" s="173"/>
-      <c r="T59" s="173"/>
-      <c r="U59" s="173"/>
-      <c r="V59" s="173"/>
-      <c r="W59" s="173"/>
-      <c r="X59" s="173"/>
-      <c r="Y59" s="173"/>
-      <c r="Z59" s="173"/>
-      <c r="AA59" s="173"/>
-      <c r="AB59" s="173"/>
-      <c r="AC59" s="173"/>
-      <c r="AD59" s="173"/>
-      <c r="AE59" s="173"/>
-      <c r="AF59" s="173"/>
-      <c r="AG59" s="174"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="170"/>
+      <c r="J59" s="170"/>
+      <c r="K59" s="170"/>
+      <c r="L59" s="170"/>
+      <c r="M59" s="170"/>
+      <c r="N59" s="170"/>
+      <c r="O59" s="170"/>
+      <c r="P59" s="170"/>
+      <c r="Q59" s="170"/>
+      <c r="R59" s="170"/>
+      <c r="S59" s="170"/>
+      <c r="T59" s="170"/>
+      <c r="U59" s="170"/>
+      <c r="V59" s="170"/>
+      <c r="W59" s="170"/>
+      <c r="X59" s="170"/>
+      <c r="Y59" s="170"/>
+      <c r="Z59" s="170"/>
+      <c r="AA59" s="170"/>
+      <c r="AB59" s="170"/>
+      <c r="AC59" s="170"/>
+      <c r="AD59" s="170"/>
+      <c r="AE59" s="170"/>
+      <c r="AF59" s="170"/>
+      <c r="AG59" s="171"/>
     </row>
     <row r="60" spans="1:33" ht="14.25" customHeight="true">
       <c r="A60" s="10" t="n">
@@ -23971,13 +23971,13 @@
       <c r="B60" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C60" s="178" t="s">
+      <c r="C60" s="166" t="s">
         <v>440</v>
       </c>
-      <c r="D60" s="179"/>
-      <c r="E60" s="179"/>
-      <c r="F60" s="179"/>
-      <c r="G60" s="180"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="168"/>
       <c r="H60" s="115" t="n">
         <v>4332760.0</v>
       </c>
@@ -24305,39 +24305,39 @@
       <c r="B64" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C64" s="172" t="s">
+      <c r="C64" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="172"/>
-      <c r="E64" s="172"/>
-      <c r="F64" s="172"/>
-      <c r="G64" s="172"/>
-      <c r="H64" s="172"/>
-      <c r="I64" s="172"/>
-      <c r="J64" s="172"/>
-      <c r="K64" s="172"/>
-      <c r="L64" s="172"/>
-      <c r="M64" s="172"/>
-      <c r="N64" s="172"/>
-      <c r="O64" s="172"/>
-      <c r="P64" s="172"/>
-      <c r="Q64" s="172"/>
-      <c r="R64" s="172"/>
-      <c r="S64" s="172"/>
-      <c r="T64" s="172"/>
-      <c r="U64" s="172"/>
-      <c r="V64" s="172"/>
-      <c r="W64" s="172"/>
-      <c r="X64" s="172"/>
-      <c r="Y64" s="172"/>
-      <c r="Z64" s="172"/>
-      <c r="AA64" s="172"/>
-      <c r="AB64" s="172"/>
-      <c r="AC64" s="172"/>
-      <c r="AD64" s="172"/>
-      <c r="AE64" s="172"/>
-      <c r="AF64" s="172"/>
-      <c r="AG64" s="172"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="169"/>
+      <c r="H64" s="169"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="169"/>
+      <c r="M64" s="169"/>
+      <c r="N64" s="169"/>
+      <c r="O64" s="169"/>
+      <c r="P64" s="169"/>
+      <c r="Q64" s="169"/>
+      <c r="R64" s="169"/>
+      <c r="S64" s="169"/>
+      <c r="T64" s="169"/>
+      <c r="U64" s="169"/>
+      <c r="V64" s="169"/>
+      <c r="W64" s="169"/>
+      <c r="X64" s="169"/>
+      <c r="Y64" s="169"/>
+      <c r="Z64" s="169"/>
+      <c r="AA64" s="169"/>
+      <c r="AB64" s="169"/>
+      <c r="AC64" s="169"/>
+      <c r="AD64" s="169"/>
+      <c r="AE64" s="169"/>
+      <c r="AF64" s="169"/>
+      <c r="AG64" s="169"/>
     </row>
     <row r="65" spans="1:33" ht="14.25" customHeight="true">
       <c r="A65" s="10" t="n">
@@ -24346,13 +24346,13 @@
       <c r="B65" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C65" s="178" t="s">
+      <c r="C65" s="166" t="s">
         <v>442</v>
       </c>
-      <c r="D65" s="179"/>
-      <c r="E65" s="179"/>
-      <c r="F65" s="179"/>
-      <c r="G65" s="180"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="168"/>
       <c r="H65" s="115" t="n">
         <v>9857630.0</v>
       </c>
@@ -24680,39 +24680,39 @@
       <c r="B69" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C69" s="172" t="s">
+      <c r="C69" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="173"/>
-      <c r="E69" s="173"/>
-      <c r="F69" s="173"/>
-      <c r="G69" s="173"/>
-      <c r="H69" s="173"/>
-      <c r="I69" s="173"/>
-      <c r="J69" s="173"/>
-      <c r="K69" s="173"/>
-      <c r="L69" s="173"/>
-      <c r="M69" s="173"/>
-      <c r="N69" s="173"/>
-      <c r="O69" s="173"/>
-      <c r="P69" s="173"/>
-      <c r="Q69" s="173"/>
-      <c r="R69" s="173"/>
-      <c r="S69" s="173"/>
-      <c r="T69" s="173"/>
-      <c r="U69" s="173"/>
-      <c r="V69" s="173"/>
-      <c r="W69" s="173"/>
-      <c r="X69" s="173"/>
-      <c r="Y69" s="173"/>
-      <c r="Z69" s="173"/>
-      <c r="AA69" s="173"/>
-      <c r="AB69" s="173"/>
-      <c r="AC69" s="173"/>
-      <c r="AD69" s="173"/>
-      <c r="AE69" s="173"/>
-      <c r="AF69" s="173"/>
-      <c r="AG69" s="174"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="170"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
+      <c r="J69" s="170"/>
+      <c r="K69" s="170"/>
+      <c r="L69" s="170"/>
+      <c r="M69" s="170"/>
+      <c r="N69" s="170"/>
+      <c r="O69" s="170"/>
+      <c r="P69" s="170"/>
+      <c r="Q69" s="170"/>
+      <c r="R69" s="170"/>
+      <c r="S69" s="170"/>
+      <c r="T69" s="170"/>
+      <c r="U69" s="170"/>
+      <c r="V69" s="170"/>
+      <c r="W69" s="170"/>
+      <c r="X69" s="170"/>
+      <c r="Y69" s="170"/>
+      <c r="Z69" s="170"/>
+      <c r="AA69" s="170"/>
+      <c r="AB69" s="170"/>
+      <c r="AC69" s="170"/>
+      <c r="AD69" s="170"/>
+      <c r="AE69" s="170"/>
+      <c r="AF69" s="170"/>
+      <c r="AG69" s="171"/>
     </row>
     <row r="70" spans="1:33" ht="14.25" customHeight="true">
       <c r="A70" s="10" t="n">
@@ -24721,13 +24721,13 @@
       <c r="B70" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C70" s="178" t="s">
+      <c r="C70" s="166" t="s">
         <v>444</v>
       </c>
-      <c r="D70" s="179"/>
-      <c r="E70" s="179"/>
-      <c r="F70" s="179"/>
-      <c r="G70" s="180"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="168"/>
       <c r="H70" s="115" t="n">
         <v>9788946.0</v>
       </c>
@@ -25055,39 +25055,39 @@
       <c r="B74" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C74" s="172" t="s">
+      <c r="C74" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
-      <c r="F74" s="173"/>
-      <c r="G74" s="173"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="173"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="173"/>
-      <c r="L74" s="173"/>
-      <c r="M74" s="173"/>
-      <c r="N74" s="173"/>
-      <c r="O74" s="173"/>
-      <c r="P74" s="173"/>
-      <c r="Q74" s="173"/>
-      <c r="R74" s="173"/>
-      <c r="S74" s="173"/>
-      <c r="T74" s="173"/>
-      <c r="U74" s="173"/>
-      <c r="V74" s="173"/>
-      <c r="W74" s="173"/>
-      <c r="X74" s="173"/>
-      <c r="Y74" s="173"/>
-      <c r="Z74" s="173"/>
-      <c r="AA74" s="173"/>
-      <c r="AB74" s="173"/>
-      <c r="AC74" s="173"/>
-      <c r="AD74" s="173"/>
-      <c r="AE74" s="173"/>
-      <c r="AF74" s="173"/>
-      <c r="AG74" s="174"/>
+      <c r="D74" s="170"/>
+      <c r="E74" s="170"/>
+      <c r="F74" s="170"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
+      <c r="I74" s="170"/>
+      <c r="J74" s="170"/>
+      <c r="K74" s="170"/>
+      <c r="L74" s="170"/>
+      <c r="M74" s="170"/>
+      <c r="N74" s="170"/>
+      <c r="O74" s="170"/>
+      <c r="P74" s="170"/>
+      <c r="Q74" s="170"/>
+      <c r="R74" s="170"/>
+      <c r="S74" s="170"/>
+      <c r="T74" s="170"/>
+      <c r="U74" s="170"/>
+      <c r="V74" s="170"/>
+      <c r="W74" s="170"/>
+      <c r="X74" s="170"/>
+      <c r="Y74" s="170"/>
+      <c r="Z74" s="170"/>
+      <c r="AA74" s="170"/>
+      <c r="AB74" s="170"/>
+      <c r="AC74" s="170"/>
+      <c r="AD74" s="170"/>
+      <c r="AE74" s="170"/>
+      <c r="AF74" s="170"/>
+      <c r="AG74" s="171"/>
     </row>
     <row r="75" spans="1:33" ht="14.25" customHeight="true">
       <c r="A75" s="10" t="n">
@@ -25096,13 +25096,13 @@
       <c r="B75" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C75" s="178" t="s">
+      <c r="C75" s="166" t="s">
         <v>446</v>
       </c>
-      <c r="D75" s="179"/>
-      <c r="E75" s="179"/>
-      <c r="F75" s="179"/>
-      <c r="G75" s="180"/>
+      <c r="D75" s="167"/>
+      <c r="E75" s="167"/>
+      <c r="F75" s="167"/>
+      <c r="G75" s="168"/>
       <c r="H75" s="115" t="n">
         <v>1.7821686E7</v>
       </c>
@@ -25430,39 +25430,39 @@
       <c r="B79" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C79" s="172" t="s">
+      <c r="C79" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="173"/>
-      <c r="E79" s="173"/>
-      <c r="F79" s="173"/>
-      <c r="G79" s="173"/>
-      <c r="H79" s="173"/>
-      <c r="I79" s="173"/>
-      <c r="J79" s="173"/>
-      <c r="K79" s="173"/>
-      <c r="L79" s="173"/>
-      <c r="M79" s="173"/>
-      <c r="N79" s="173"/>
-      <c r="O79" s="173"/>
-      <c r="P79" s="173"/>
-      <c r="Q79" s="173"/>
-      <c r="R79" s="173"/>
-      <c r="S79" s="173"/>
-      <c r="T79" s="173"/>
-      <c r="U79" s="173"/>
-      <c r="V79" s="173"/>
-      <c r="W79" s="173"/>
-      <c r="X79" s="173"/>
-      <c r="Y79" s="173"/>
-      <c r="Z79" s="173"/>
-      <c r="AA79" s="173"/>
-      <c r="AB79" s="173"/>
-      <c r="AC79" s="173"/>
-      <c r="AD79" s="173"/>
-      <c r="AE79" s="173"/>
-      <c r="AF79" s="173"/>
-      <c r="AG79" s="174"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="170"/>
+      <c r="J79" s="170"/>
+      <c r="K79" s="170"/>
+      <c r="L79" s="170"/>
+      <c r="M79" s="170"/>
+      <c r="N79" s="170"/>
+      <c r="O79" s="170"/>
+      <c r="P79" s="170"/>
+      <c r="Q79" s="170"/>
+      <c r="R79" s="170"/>
+      <c r="S79" s="170"/>
+      <c r="T79" s="170"/>
+      <c r="U79" s="170"/>
+      <c r="V79" s="170"/>
+      <c r="W79" s="170"/>
+      <c r="X79" s="170"/>
+      <c r="Y79" s="170"/>
+      <c r="Z79" s="170"/>
+      <c r="AA79" s="170"/>
+      <c r="AB79" s="170"/>
+      <c r="AC79" s="170"/>
+      <c r="AD79" s="170"/>
+      <c r="AE79" s="170"/>
+      <c r="AF79" s="170"/>
+      <c r="AG79" s="171"/>
     </row>
     <row r="80" spans="1:33" ht="14.25" customHeight="true">
       <c r="A80" s="10" t="n">
@@ -25471,13 +25471,13 @@
       <c r="B80" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C80" s="178" t="s">
+      <c r="C80" s="166" t="s">
         <v>448</v>
       </c>
-      <c r="D80" s="179"/>
-      <c r="E80" s="179"/>
-      <c r="F80" s="179"/>
-      <c r="G80" s="180"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="167"/>
+      <c r="F80" s="167"/>
+      <c r="G80" s="168"/>
       <c r="H80" s="115" t="n">
         <v>1.9981868E7</v>
       </c>
@@ -25805,39 +25805,39 @@
       <c r="B84" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C84" s="172" t="s">
+      <c r="C84" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="173"/>
-      <c r="I84" s="173"/>
-      <c r="J84" s="173"/>
-      <c r="K84" s="173"/>
-      <c r="L84" s="173"/>
-      <c r="M84" s="173"/>
-      <c r="N84" s="173"/>
-      <c r="O84" s="173"/>
-      <c r="P84" s="173"/>
-      <c r="Q84" s="173"/>
-      <c r="R84" s="173"/>
-      <c r="S84" s="173"/>
-      <c r="T84" s="173"/>
-      <c r="U84" s="173"/>
-      <c r="V84" s="173"/>
-      <c r="W84" s="173"/>
-      <c r="X84" s="173"/>
-      <c r="Y84" s="173"/>
-      <c r="Z84" s="173"/>
-      <c r="AA84" s="173"/>
-      <c r="AB84" s="173"/>
-      <c r="AC84" s="173"/>
-      <c r="AD84" s="173"/>
-      <c r="AE84" s="173"/>
-      <c r="AF84" s="173"/>
-      <c r="AG84" s="174"/>
+      <c r="D84" s="170"/>
+      <c r="E84" s="170"/>
+      <c r="F84" s="170"/>
+      <c r="G84" s="170"/>
+      <c r="H84" s="170"/>
+      <c r="I84" s="170"/>
+      <c r="J84" s="170"/>
+      <c r="K84" s="170"/>
+      <c r="L84" s="170"/>
+      <c r="M84" s="170"/>
+      <c r="N84" s="170"/>
+      <c r="O84" s="170"/>
+      <c r="P84" s="170"/>
+      <c r="Q84" s="170"/>
+      <c r="R84" s="170"/>
+      <c r="S84" s="170"/>
+      <c r="T84" s="170"/>
+      <c r="U84" s="170"/>
+      <c r="V84" s="170"/>
+      <c r="W84" s="170"/>
+      <c r="X84" s="170"/>
+      <c r="Y84" s="170"/>
+      <c r="Z84" s="170"/>
+      <c r="AA84" s="170"/>
+      <c r="AB84" s="170"/>
+      <c r="AC84" s="170"/>
+      <c r="AD84" s="170"/>
+      <c r="AE84" s="170"/>
+      <c r="AF84" s="170"/>
+      <c r="AG84" s="171"/>
     </row>
     <row r="85" spans="1:33" ht="14.25" customHeight="true">
       <c r="A85" s="10" t="n">
@@ -25846,13 +25846,13 @@
       <c r="B85" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C85" s="178" t="s">
+      <c r="C85" s="166" t="s">
         <v>450</v>
       </c>
-      <c r="D85" s="179"/>
-      <c r="E85" s="179"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="180"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
+      <c r="G85" s="168"/>
       <c r="H85" s="115" t="n">
         <v>1.9981868E7</v>
       </c>
@@ -26180,39 +26180,39 @@
       <c r="B89" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C89" s="172" t="s">
+      <c r="C89" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="173"/>
-      <c r="E89" s="173"/>
-      <c r="F89" s="173"/>
-      <c r="G89" s="173"/>
-      <c r="H89" s="173"/>
-      <c r="I89" s="173"/>
-      <c r="J89" s="173"/>
-      <c r="K89" s="173"/>
-      <c r="L89" s="173"/>
-      <c r="M89" s="173"/>
-      <c r="N89" s="173"/>
-      <c r="O89" s="173"/>
-      <c r="P89" s="173"/>
-      <c r="Q89" s="173"/>
-      <c r="R89" s="173"/>
-      <c r="S89" s="173"/>
-      <c r="T89" s="173"/>
-      <c r="U89" s="173"/>
-      <c r="V89" s="173"/>
-      <c r="W89" s="173"/>
-      <c r="X89" s="173"/>
-      <c r="Y89" s="173"/>
-      <c r="Z89" s="173"/>
-      <c r="AA89" s="173"/>
-      <c r="AB89" s="173"/>
-      <c r="AC89" s="173"/>
-      <c r="AD89" s="173"/>
-      <c r="AE89" s="173"/>
-      <c r="AF89" s="173"/>
-      <c r="AG89" s="174"/>
+      <c r="D89" s="170"/>
+      <c r="E89" s="170"/>
+      <c r="F89" s="170"/>
+      <c r="G89" s="170"/>
+      <c r="H89" s="170"/>
+      <c r="I89" s="170"/>
+      <c r="J89" s="170"/>
+      <c r="K89" s="170"/>
+      <c r="L89" s="170"/>
+      <c r="M89" s="170"/>
+      <c r="N89" s="170"/>
+      <c r="O89" s="170"/>
+      <c r="P89" s="170"/>
+      <c r="Q89" s="170"/>
+      <c r="R89" s="170"/>
+      <c r="S89" s="170"/>
+      <c r="T89" s="170"/>
+      <c r="U89" s="170"/>
+      <c r="V89" s="170"/>
+      <c r="W89" s="170"/>
+      <c r="X89" s="170"/>
+      <c r="Y89" s="170"/>
+      <c r="Z89" s="170"/>
+      <c r="AA89" s="170"/>
+      <c r="AB89" s="170"/>
+      <c r="AC89" s="170"/>
+      <c r="AD89" s="170"/>
+      <c r="AE89" s="170"/>
+      <c r="AF89" s="170"/>
+      <c r="AG89" s="171"/>
     </row>
     <row r="90" spans="1:33" ht="14.25" customHeight="true">
       <c r="A90" s="10" t="n">
@@ -26221,13 +26221,13 @@
       <c r="B90" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C90" s="178" t="s">
+      <c r="C90" s="166" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="179"/>
-      <c r="E90" s="179"/>
-      <c r="F90" s="179"/>
-      <c r="G90" s="180"/>
+      <c r="D90" s="167"/>
+      <c r="E90" s="167"/>
+      <c r="F90" s="167"/>
+      <c r="G90" s="168"/>
       <c r="H90" s="115" t="n">
         <v>5353361.0</v>
       </c>
@@ -26555,39 +26555,39 @@
       <c r="B94" t="s" s="11">
         <v>453</v>
       </c>
-      <c r="C94" t="s" s="172">
+      <c r="C94" t="s" s="169">
         <v>87</v>
       </c>
-      <c r="D94" s="173"/>
-      <c r="E94" s="173"/>
-      <c r="F94" s="173"/>
-      <c r="G94" s="173"/>
-      <c r="H94" s="173"/>
-      <c r="I94" s="173"/>
-      <c r="J94" s="173"/>
-      <c r="K94" s="173"/>
-      <c r="L94" s="173"/>
-      <c r="M94" s="173"/>
-      <c r="N94" s="173"/>
-      <c r="O94" s="173"/>
-      <c r="P94" s="173"/>
-      <c r="Q94" s="173"/>
-      <c r="R94" s="173"/>
-      <c r="S94" s="173"/>
-      <c r="T94" s="173"/>
-      <c r="U94" s="173"/>
-      <c r="V94" s="173"/>
-      <c r="W94" s="173"/>
-      <c r="X94" s="173"/>
-      <c r="Y94" s="173"/>
-      <c r="Z94" s="173"/>
-      <c r="AA94" s="173"/>
-      <c r="AB94" s="173"/>
-      <c r="AC94" s="173"/>
-      <c r="AD94" s="173"/>
-      <c r="AE94" s="173"/>
-      <c r="AF94" s="173"/>
-      <c r="AG94" s="174"/>
+      <c r="D94" s="170"/>
+      <c r="E94" s="170"/>
+      <c r="F94" s="170"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="170"/>
+      <c r="J94" s="170"/>
+      <c r="K94" s="170"/>
+      <c r="L94" s="170"/>
+      <c r="M94" s="170"/>
+      <c r="N94" s="170"/>
+      <c r="O94" s="170"/>
+      <c r="P94" s="170"/>
+      <c r="Q94" s="170"/>
+      <c r="R94" s="170"/>
+      <c r="S94" s="170"/>
+      <c r="T94" s="170"/>
+      <c r="U94" s="170"/>
+      <c r="V94" s="170"/>
+      <c r="W94" s="170"/>
+      <c r="X94" s="170"/>
+      <c r="Y94" s="170"/>
+      <c r="Z94" s="170"/>
+      <c r="AA94" s="170"/>
+      <c r="AB94" s="170"/>
+      <c r="AC94" s="170"/>
+      <c r="AD94" s="170"/>
+      <c r="AE94" s="170"/>
+      <c r="AF94" s="170"/>
+      <c r="AG94" s="171"/>
     </row>
     <row r="95" spans="1:33" ht="14.25" customHeight="true">
       <c r="A95" s="10" t="n">
@@ -26596,13 +26596,13 @@
       <c r="B95" t="s" s="11">
         <v>453</v>
       </c>
-      <c r="C95" t="s" s="178">
+      <c r="C95" t="s" s="166">
         <v>454</v>
       </c>
-      <c r="D95" s="179"/>
-      <c r="E95" s="179"/>
-      <c r="F95" s="179"/>
-      <c r="G95" s="180"/>
+      <c r="D95" s="167"/>
+      <c r="E95" s="167"/>
+      <c r="F95" s="167"/>
+      <c r="G95" s="168"/>
       <c r="H95" t="n" s="115">
         <v>1.2217892E7</v>
       </c>
@@ -26930,39 +26930,39 @@
       <c r="B99" t="s" s="11">
         <v>455</v>
       </c>
-      <c r="C99" t="s" s="172">
+      <c r="C99" t="s" s="169">
         <v>87</v>
       </c>
-      <c r="D99" s="173"/>
-      <c r="E99" s="173"/>
-      <c r="F99" s="173"/>
-      <c r="G99" s="173"/>
-      <c r="H99" s="173"/>
-      <c r="I99" s="173"/>
-      <c r="J99" s="173"/>
-      <c r="K99" s="173"/>
-      <c r="L99" s="173"/>
-      <c r="M99" s="173"/>
-      <c r="N99" s="173"/>
-      <c r="O99" s="173"/>
-      <c r="P99" s="173"/>
-      <c r="Q99" s="173"/>
-      <c r="R99" s="173"/>
-      <c r="S99" s="173"/>
-      <c r="T99" s="173"/>
-      <c r="U99" s="173"/>
-      <c r="V99" s="173"/>
-      <c r="W99" s="173"/>
-      <c r="X99" s="173"/>
-      <c r="Y99" s="173"/>
-      <c r="Z99" s="173"/>
-      <c r="AA99" s="173"/>
-      <c r="AB99" s="173"/>
-      <c r="AC99" s="173"/>
-      <c r="AD99" s="173"/>
-      <c r="AE99" s="173"/>
-      <c r="AF99" s="173"/>
-      <c r="AG99" s="174"/>
+      <c r="D99" s="170"/>
+      <c r="E99" s="170"/>
+      <c r="F99" s="170"/>
+      <c r="G99" s="170"/>
+      <c r="H99" s="170"/>
+      <c r="I99" s="170"/>
+      <c r="J99" s="170"/>
+      <c r="K99" s="170"/>
+      <c r="L99" s="170"/>
+      <c r="M99" s="170"/>
+      <c r="N99" s="170"/>
+      <c r="O99" s="170"/>
+      <c r="P99" s="170"/>
+      <c r="Q99" s="170"/>
+      <c r="R99" s="170"/>
+      <c r="S99" s="170"/>
+      <c r="T99" s="170"/>
+      <c r="U99" s="170"/>
+      <c r="V99" s="170"/>
+      <c r="W99" s="170"/>
+      <c r="X99" s="170"/>
+      <c r="Y99" s="170"/>
+      <c r="Z99" s="170"/>
+      <c r="AA99" s="170"/>
+      <c r="AB99" s="170"/>
+      <c r="AC99" s="170"/>
+      <c r="AD99" s="170"/>
+      <c r="AE99" s="170"/>
+      <c r="AF99" s="170"/>
+      <c r="AG99" s="171"/>
     </row>
     <row r="100" ht="14.25" customHeight="true">
       <c r="A100" t="n" s="10">
@@ -26971,13 +26971,13 @@
       <c r="B100" t="s" s="11">
         <v>455</v>
       </c>
-      <c r="C100" t="s" s="178">
+      <c r="C100" t="s" s="166">
         <v>456</v>
       </c>
-      <c r="D100" s="179"/>
-      <c r="E100" s="179"/>
-      <c r="F100" s="179"/>
-      <c r="G100" s="180"/>
+      <c r="D100" s="167"/>
+      <c r="E100" s="167"/>
+      <c r="F100" s="167"/>
+      <c r="G100" s="168"/>
       <c r="H100" t="n" s="115">
         <v>432375.0</v>
       </c>
@@ -27305,39 +27305,39 @@
       <c r="B104" t="s" s="11">
         <v>457</v>
       </c>
-      <c r="C104" t="s" s="172">
+      <c r="C104" t="s" s="169">
         <v>87</v>
       </c>
-      <c r="D104" s="173"/>
-      <c r="E104" s="173"/>
-      <c r="F104" s="173"/>
-      <c r="G104" s="173"/>
-      <c r="H104" s="173"/>
-      <c r="I104" s="173"/>
-      <c r="J104" s="173"/>
-      <c r="K104" s="173"/>
-      <c r="L104" s="173"/>
-      <c r="M104" s="173"/>
-      <c r="N104" s="173"/>
-      <c r="O104" s="173"/>
-      <c r="P104" s="173"/>
-      <c r="Q104" s="173"/>
-      <c r="R104" s="173"/>
-      <c r="S104" s="173"/>
-      <c r="T104" s="173"/>
-      <c r="U104" s="173"/>
-      <c r="V104" s="173"/>
-      <c r="W104" s="173"/>
-      <c r="X104" s="173"/>
-      <c r="Y104" s="173"/>
-      <c r="Z104" s="173"/>
-      <c r="AA104" s="173"/>
-      <c r="AB104" s="173"/>
-      <c r="AC104" s="173"/>
-      <c r="AD104" s="173"/>
-      <c r="AE104" s="173"/>
-      <c r="AF104" s="173"/>
-      <c r="AG104" s="174"/>
+      <c r="D104" s="170"/>
+      <c r="E104" s="170"/>
+      <c r="F104" s="170"/>
+      <c r="G104" s="170"/>
+      <c r="H104" s="170"/>
+      <c r="I104" s="170"/>
+      <c r="J104" s="170"/>
+      <c r="K104" s="170"/>
+      <c r="L104" s="170"/>
+      <c r="M104" s="170"/>
+      <c r="N104" s="170"/>
+      <c r="O104" s="170"/>
+      <c r="P104" s="170"/>
+      <c r="Q104" s="170"/>
+      <c r="R104" s="170"/>
+      <c r="S104" s="170"/>
+      <c r="T104" s="170"/>
+      <c r="U104" s="170"/>
+      <c r="V104" s="170"/>
+      <c r="W104" s="170"/>
+      <c r="X104" s="170"/>
+      <c r="Y104" s="170"/>
+      <c r="Z104" s="170"/>
+      <c r="AA104" s="170"/>
+      <c r="AB104" s="170"/>
+      <c r="AC104" s="170"/>
+      <c r="AD104" s="170"/>
+      <c r="AE104" s="170"/>
+      <c r="AF104" s="170"/>
+      <c r="AG104" s="171"/>
     </row>
     <row r="105" ht="14.25" customHeight="true">
       <c r="A105" t="n" s="10">
@@ -27346,13 +27346,13 @@
       <c r="B105" t="s" s="11">
         <v>457</v>
       </c>
-      <c r="C105" t="s" s="178">
+      <c r="C105" t="s" s="166">
         <v>458</v>
       </c>
-      <c r="D105" s="179"/>
-      <c r="E105" s="179"/>
-      <c r="F105" s="179"/>
-      <c r="G105" s="180"/>
+      <c r="D105" s="167"/>
+      <c r="E105" s="167"/>
+      <c r="F105" s="167"/>
+      <c r="G105" s="168"/>
       <c r="H105" t="n" s="115">
         <v>5.5675286E7</v>
       </c>
@@ -27680,39 +27680,39 @@
       <c r="B109" t="s" s="11">
         <v>459</v>
       </c>
-      <c r="C109" t="s" s="172">
+      <c r="C109" t="s" s="169">
         <v>87</v>
       </c>
-      <c r="D109" s="173"/>
-      <c r="E109" s="173"/>
-      <c r="F109" s="173"/>
-      <c r="G109" s="173"/>
-      <c r="H109" s="173"/>
-      <c r="I109" s="173"/>
-      <c r="J109" s="173"/>
-      <c r="K109" s="173"/>
-      <c r="L109" s="173"/>
-      <c r="M109" s="173"/>
-      <c r="N109" s="173"/>
-      <c r="O109" s="173"/>
-      <c r="P109" s="173"/>
-      <c r="Q109" s="173"/>
-      <c r="R109" s="173"/>
-      <c r="S109" s="173"/>
-      <c r="T109" s="173"/>
-      <c r="U109" s="173"/>
-      <c r="V109" s="173"/>
-      <c r="W109" s="173"/>
-      <c r="X109" s="173"/>
-      <c r="Y109" s="173"/>
-      <c r="Z109" s="173"/>
-      <c r="AA109" s="173"/>
-      <c r="AB109" s="173"/>
-      <c r="AC109" s="173"/>
-      <c r="AD109" s="173"/>
-      <c r="AE109" s="173"/>
-      <c r="AF109" s="173"/>
-      <c r="AG109" s="174"/>
+      <c r="D109" s="170"/>
+      <c r="E109" s="170"/>
+      <c r="F109" s="170"/>
+      <c r="G109" s="170"/>
+      <c r="H109" s="170"/>
+      <c r="I109" s="170"/>
+      <c r="J109" s="170"/>
+      <c r="K109" s="170"/>
+      <c r="L109" s="170"/>
+      <c r="M109" s="170"/>
+      <c r="N109" s="170"/>
+      <c r="O109" s="170"/>
+      <c r="P109" s="170"/>
+      <c r="Q109" s="170"/>
+      <c r="R109" s="170"/>
+      <c r="S109" s="170"/>
+      <c r="T109" s="170"/>
+      <c r="U109" s="170"/>
+      <c r="V109" s="170"/>
+      <c r="W109" s="170"/>
+      <c r="X109" s="170"/>
+      <c r="Y109" s="170"/>
+      <c r="Z109" s="170"/>
+      <c r="AA109" s="170"/>
+      <c r="AB109" s="170"/>
+      <c r="AC109" s="170"/>
+      <c r="AD109" s="170"/>
+      <c r="AE109" s="170"/>
+      <c r="AF109" s="170"/>
+      <c r="AG109" s="171"/>
     </row>
     <row r="110" ht="14.25" customHeight="true">
       <c r="A110" t="n" s="10">
@@ -27721,13 +27721,13 @@
       <c r="B110" t="s" s="11">
         <v>459</v>
       </c>
-      <c r="C110" t="s" s="178">
+      <c r="C110" t="s" s="166">
         <v>460</v>
       </c>
-      <c r="D110" s="179"/>
-      <c r="E110" s="179"/>
-      <c r="F110" s="179"/>
-      <c r="G110" s="180"/>
+      <c r="D110" s="167"/>
+      <c r="E110" s="167"/>
+      <c r="F110" s="167"/>
+      <c r="G110" s="168"/>
       <c r="H110" t="n" s="115">
         <v>7.9836177E7</v>
       </c>
@@ -27809,14 +27809,14 @@
     </row>
     <row r="111" ht="14.25" customHeight="true">
       <c r="A111" s="15"/>
-      <c r="B111" t="s" s="181">
+      <c r="B111" t="s" s="172">
         <v>461</v>
       </c>
-      <c r="C111" s="182"/>
-      <c r="D111" s="182"/>
-      <c r="E111" s="182"/>
-      <c r="F111" s="182"/>
-      <c r="G111" s="183"/>
+      <c r="C111" s="173"/>
+      <c r="D111" s="173"/>
+      <c r="E111" s="173"/>
+      <c r="F111" s="173"/>
+      <c r="G111" s="174"/>
       <c r="H111" t="n" s="115">
         <v>2.35279849E8</v>
       </c>

--- a/src/main/resources/jxls/out/预算报表(年度预算).xlsx
+++ b/src/main/resources/jxls/out/预算报表(年度预算).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaworkspace\ExcelWrite\ExcelWrite\src\main\resources\jxls\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\projects\POI相关\ExcelWrite\ExcelWrite\src\main\resources\jxls\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12645" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12645" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="逾期应收账款处置" sheetId="72" r:id="rId1"/>
@@ -5978,72 +5978,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF0066FF"/>
     </mruColors>
@@ -6067,7 +6001,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6407,8 +6341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10549,8 +10483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10742,7 +10676,7 @@
       <c r="D6" s="105" t="s">
         <v>1306</v>
       </c>
-      <c r="E6" s="107" t="n">
+      <c r="E6" s="99" t="n">
         <v>243432.0</v>
       </c>
       <c r="F6" s="99" t="n">
@@ -10805,7 +10739,7 @@
       <c r="D7" s="105" t="s">
         <v>1308</v>
       </c>
-      <c r="E7" s="107" t="n">
+      <c r="E7" s="99" t="n">
         <v>3225.0</v>
       </c>
       <c r="F7" s="99" t="n">
@@ -10868,7 +10802,7 @@
       <c r="D8" s="105" t="s">
         <v>1310</v>
       </c>
-      <c r="E8" s="107" t="n">
+      <c r="E8" s="99" t="n">
         <v>235.0</v>
       </c>
       <c r="F8" s="99" t="n">
@@ -10931,7 +10865,7 @@
       <c r="D9" s="105" t="s">
         <v>1312</v>
       </c>
-      <c r="E9" s="107" t="n">
+      <c r="E9" s="99" t="n">
         <v>4545.0</v>
       </c>
       <c r="F9" s="99" t="n">
@@ -10988,7 +10922,7 @@
       <c r="D10" s="105" t="s">
         <v>1314</v>
       </c>
-      <c r="E10" s="107" t="n">
+      <c r="E10" s="99" t="n">
         <v>56565.0</v>
       </c>
       <c r="F10" s="99" t="n">
@@ -11045,7 +10979,7 @@
       <c r="D11" s="105" t="s">
         <v>1316</v>
       </c>
-      <c r="E11" s="107" t="n">
+      <c r="E11" s="99" t="n">
         <v>325.0</v>
       </c>
       <c r="F11" s="99" t="n">
@@ -11102,7 +11036,7 @@
       <c r="D12" s="105" t="s">
         <v>1318</v>
       </c>
-      <c r="E12" s="107" t="n">
+      <c r="E12" s="99" t="n">
         <v>235235.0</v>
       </c>
       <c r="F12" s="99" t="n">
@@ -11159,7 +11093,7 @@
       <c r="D13" s="105" t="s">
         <v>1320</v>
       </c>
-      <c r="E13" s="107" t="n">
+      <c r="E13" s="99" t="n">
         <v>4645.0</v>
       </c>
       <c r="F13" s="99" t="n">
@@ -11216,7 +11150,7 @@
       <c r="D14" s="105" t="s">
         <v>1322</v>
       </c>
-      <c r="E14" s="107" t="n">
+      <c r="E14" s="99" t="n">
         <v>44.0</v>
       </c>
       <c r="F14" s="99" t="n">
@@ -11273,7 +11207,7 @@
       <c r="D15" s="105" t="s">
         <v>1324</v>
       </c>
-      <c r="E15" s="107" t="n">
+      <c r="E15" s="99" t="n">
         <v>45664.0</v>
       </c>
       <c r="F15" s="99" t="n">
@@ -11330,7 +11264,7 @@
       <c r="D16" s="105" t="s">
         <v>1326</v>
       </c>
-      <c r="E16" s="107" t="n">
+      <c r="E16" s="99" t="n">
         <v>45645.0</v>
       </c>
       <c r="F16" s="99" t="n">
@@ -11387,7 +11321,7 @@
       <c r="D17" s="105" t="s">
         <v>1328</v>
       </c>
-      <c r="E17" s="107" t="n">
+      <c r="E17" s="99" t="n">
         <v>7575.0</v>
       </c>
       <c r="F17" s="99" t="n">
@@ -11444,7 +11378,7 @@
       <c r="D18" s="105" t="s">
         <v>1330</v>
       </c>
-      <c r="E18" s="107" t="n">
+      <c r="E18" s="99" t="n">
         <v>45654.0</v>
       </c>
       <c r="F18" s="99" t="n">
@@ -11501,7 +11435,7 @@
       <c r="D19" s="105" t="s">
         <v>1332</v>
       </c>
-      <c r="E19" s="107" t="n">
+      <c r="E19" s="99" t="n">
         <v>675.0</v>
       </c>
       <c r="F19" s="99" t="n">
@@ -11564,7 +11498,7 @@
       <c r="D20" s="105" t="s">
         <v>1334</v>
       </c>
-      <c r="E20" s="107" t="n">
+      <c r="E20" s="99" t="n">
         <v>69345.0</v>
       </c>
       <c r="F20" s="99" t="n">
@@ -11626,7 +11560,7 @@
       <c r="D21" s="105" t="s">
         <v>1336</v>
       </c>
-      <c r="E21" s="107" t="n">
+      <c r="E21" s="99" t="n">
         <v>8523.0</v>
       </c>
       <c r="F21" s="99" t="n">
@@ -11688,7 +11622,7 @@
       <c r="D22" s="105" t="s">
         <v>1338</v>
       </c>
-      <c r="E22" s="107" t="n">
+      <c r="E22" s="99" t="n">
         <v>983424.0</v>
       </c>
       <c r="F22" s="99" t="n">
